--- a/W26庫存明細表.xlsx
+++ b/W26庫存明細表.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="1765">
   <si>
     <t>品名</t>
   </si>
@@ -380,6 +380,24 @@
     <t/>
   </si>
   <si>
+    <t>40201030-A0</t>
+  </si>
+  <si>
+    <t>上蓋</t>
+  </si>
+  <si>
+    <t>鐵件SPCC,613x129.4x196.5mm, t=1.2mm ,黑,粉烤</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>40201039-A0</t>
   </si>
   <si>
@@ -434,6 +452,60 @@
     <t/>
   </si>
   <si>
+    <t>40201045-A1</t>
+  </si>
+  <si>
+    <t>側蓋板</t>
+  </si>
+  <si>
+    <t>鐵件,SPCC,340.6x鐵件,SPCC,340.6x248.35x3.2mm, t=0.8mm,黑,粉烤,卡扣版,抽芽</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>40201046-A1</t>
+  </si>
+  <si>
+    <t>箱體上蓋</t>
+  </si>
+  <si>
+    <t>鐵件,SPCC,341x173x10mm,t=1.0mm,黑,粉烤</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>40201048-A0</t>
+  </si>
+  <si>
+    <t>固定壓條</t>
+  </si>
+  <si>
+    <t>鐵件,SPCC,337x15x12mm,t=1.0mm,黑,粉烤</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>40201075-01</t>
   </si>
   <si>
@@ -614,6 +686,24 @@
     <t/>
   </si>
   <si>
+    <t>40201121-A0</t>
+  </si>
+  <si>
+    <t>BMU蓋板</t>
+  </si>
+  <si>
+    <t>鐵件,SPCC,129.8x93x3.1mm,t=1.0mm黑,粉烤+印刷,溫度回收標章,8個溫度點</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>40201126-01</t>
   </si>
   <si>
@@ -668,6 +758,24 @@
     <t/>
   </si>
   <si>
+    <t>40202011-A0</t>
+  </si>
+  <si>
+    <t>2450B箱體</t>
+  </si>
+  <si>
+    <t>鐵件SPCC,640x130x210mm, t=1.2mm ,黑,粉烤</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>40202025-A0</t>
   </si>
   <si>
@@ -686,6 +794,24 @@
     <t/>
   </si>
   <si>
+    <t>40202027-A0</t>
+  </si>
+  <si>
+    <t>箱體</t>
+  </si>
+  <si>
+    <t>鐵件,SPCC,341x170.6x248.8mm,t=1.0mm,黑,粉烤,卡扣版</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>40202102-01</t>
   </si>
   <si>
@@ -956,6 +1082,78 @@
     <t/>
   </si>
   <si>
+    <t>40204012-A0</t>
+  </si>
+  <si>
+    <t>極柱連接器</t>
+  </si>
+  <si>
+    <t>組合件,銅+PBT,50x50x70mm,M10x20L,M10貫穿,黑色</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>40204013-A0</t>
+  </si>
+  <si>
+    <t>極柱連接器</t>
+  </si>
+  <si>
+    <t>組合件,銅+PBT,50x50x70mm,M10x20L,M10貫穿,橘紅色</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>40204032-A0</t>
+  </si>
+  <si>
+    <t>極柱連接器</t>
+  </si>
+  <si>
+    <t>組合件,銅+PBT,50x50x70mm,M10x20L,M10貫穿,黑色</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>40204033-A0</t>
+  </si>
+  <si>
+    <t>極柱連接器</t>
+  </si>
+  <si>
+    <t>組合件,銅+PBT,50x50x70mm,M10x20L,M10貫穿,橘紅色</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>40205004-01</t>
   </si>
   <si>
@@ -2450,6 +2648,24 @@
     <t/>
   </si>
   <si>
+    <t>40212016-A0</t>
+  </si>
+  <si>
+    <t>絕緣片</t>
+  </si>
+  <si>
+    <t>PC,DFR117 0.25t+3M 467 0.05t,單膠,黑色</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>40212017-A0</t>
   </si>
   <si>
@@ -4232,6 +4448,24 @@
     <t/>
   </si>
   <si>
+    <t>40320005-A0</t>
+  </si>
+  <si>
+    <t>空白標籤(白色特多龍)</t>
+  </si>
+  <si>
+    <t>50x60x0.05mm(60mm方向出標)</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>40320006-A0</t>
   </si>
   <si>
@@ -4394,24 +4628,6 @@
     <t/>
   </si>
   <si>
-    <t>40431001-01</t>
-  </si>
-  <si>
-    <t>工商儲控制箱</t>
-  </si>
-  <si>
-    <t>兆科NBZK-BMS-E250-O1(RZ)</t>
-  </si>
-  <si>
-    <t>PCS</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>40432001-01</t>
   </si>
   <si>
@@ -4743,24 +4959,6 @@
   </si>
   <si>
     <t>TW-BP-2450B2,國軒,V2.0</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>20100022-A0</t>
-  </si>
-  <si>
-    <t>鋰電池模組</t>
-  </si>
-  <si>
-    <t>TW-BP-2450H</t>
   </si>
   <si>
     <t>SET</t>
@@ -5115,25 +5313,25 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="細明體"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="細明體"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="細明體"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
       <color rgb="FF6D6D6D"/>
       <name val="細明體"/>
       <charset val="1"/>
@@ -5273,14 +5471,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="0"/>
   <sheets>
-    <sheet r:id="rId0" sheetId="1" name="INVR182025122200003920251222000"/>
+    <sheet r:id="rId0" sheetId="1" name="INVR182026010500000820260105000"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl\worksheets\sheet0.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G283"/>
+  <dimension ref="A1:G294"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5296,7 +5494,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>1698</v>
+        <v>1764</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -5317,7 +5515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1">
+    <row r="2" spans="1:7" ht="12" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -5340,7 +5538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+    <row r="3" spans="1:7" ht="12" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -5363,7 +5561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
+    <row r="4" spans="1:7" ht="12" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -5386,7 +5584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+    <row r="5" spans="1:7" ht="12" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -5409,7 +5607,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1">
+    <row r="6" spans="1:7" ht="12" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -5432,7 +5630,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:7" ht="12" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
@@ -5455,7 +5653,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1">
+    <row r="8" spans="1:7" ht="12" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -5478,7 +5676,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1">
+    <row r="9" spans="1:7" ht="12" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>48</v>
       </c>
@@ -5501,7 +5699,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1">
+    <row r="10" spans="1:7" ht="12" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
@@ -5512,7 +5710,7 @@
         <v>56</v>
       </c>
       <c r="D10" s="2">
-        <v>12480</v>
+        <v>24960</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>57</v>
@@ -5524,7 +5722,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1">
+    <row r="11" spans="1:7" ht="12" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>60</v>
       </c>
@@ -5547,7 +5745,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1">
+    <row r="12" spans="1:7" ht="12" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>66</v>
       </c>
@@ -5570,7 +5768,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1">
+    <row r="13" spans="1:7" ht="12" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>72</v>
       </c>
@@ -5593,7 +5791,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1">
+    <row r="14" spans="1:7" ht="12" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>78</v>
       </c>
@@ -5616,7 +5814,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1">
+    <row r="15" spans="1:7" ht="12" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>84</v>
       </c>
@@ -5639,7 +5837,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1">
+    <row r="16" spans="1:7" ht="12" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>90</v>
       </c>
@@ -5662,7 +5860,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1">
+    <row r="17" spans="1:7" ht="12" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>96</v>
       </c>
@@ -5685,7 +5883,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1">
+    <row r="18" spans="1:7" ht="12" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>102</v>
       </c>
@@ -5708,7 +5906,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1">
+    <row r="19" spans="1:7" ht="12" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>108</v>
       </c>
@@ -5731,7 +5929,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1">
+    <row r="20" spans="1:7" ht="12" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>114</v>
       </c>
@@ -5754,7 +5952,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1">
+    <row r="21" spans="1:7" ht="12" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>120</v>
       </c>
@@ -5777,7 +5975,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1">
+    <row r="22" spans="1:7" ht="12" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>126</v>
       </c>
@@ -5788,7 +5986,7 @@
         <v>128</v>
       </c>
       <c r="D22" s="2">
-        <v>3</v>
+        <v>576</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>129</v>
@@ -5800,7 +5998,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1">
+    <row r="23" spans="1:7" ht="12" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>132</v>
       </c>
@@ -5811,7 +6009,7 @@
         <v>134</v>
       </c>
       <c r="D23" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>135</v>
@@ -5823,7 +6021,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1">
+    <row r="24" spans="1:7" ht="12" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>138</v>
       </c>
@@ -5834,7 +6032,7 @@
         <v>140</v>
       </c>
       <c r="D24" s="2">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>141</v>
@@ -5846,7 +6044,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1">
+    <row r="25" spans="1:7" ht="12" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>144</v>
       </c>
@@ -5857,7 +6055,7 @@
         <v>146</v>
       </c>
       <c r="D25" s="2">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>147</v>
@@ -5869,7 +6067,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1">
+    <row r="26" spans="1:7" ht="12" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>150</v>
       </c>
@@ -5880,7 +6078,7 @@
         <v>152</v>
       </c>
       <c r="D26" s="2">
-        <v>18</v>
+        <v>4000</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>153</v>
@@ -5892,7 +6090,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1">
+    <row r="27" spans="1:7" ht="12" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>156</v>
       </c>
@@ -5903,7 +6101,7 @@
         <v>158</v>
       </c>
       <c r="D27" s="2">
-        <v>3</v>
+        <v>2000</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>159</v>
@@ -5915,7 +6113,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1">
+    <row r="28" spans="1:7" ht="12" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>162</v>
       </c>
@@ -5926,7 +6124,7 @@
         <v>164</v>
       </c>
       <c r="D28" s="2">
-        <v>2</v>
+        <v>4000</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>165</v>
@@ -5938,7 +6136,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1">
+    <row r="29" spans="1:7" ht="12" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>168</v>
       </c>
@@ -5949,7 +6147,7 @@
         <v>170</v>
       </c>
       <c r="D29" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>171</v>
@@ -5961,7 +6159,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1">
+    <row r="30" spans="1:7" ht="12" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>174</v>
       </c>
@@ -5972,7 +6170,7 @@
         <v>176</v>
       </c>
       <c r="D30" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>177</v>
@@ -5984,7 +6182,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1">
+    <row r="31" spans="1:7" ht="12" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>180</v>
       </c>
@@ -5995,7 +6193,7 @@
         <v>182</v>
       </c>
       <c r="D31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>183</v>
@@ -6007,7 +6205,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1">
+    <row r="32" spans="1:7" ht="12" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>186</v>
       </c>
@@ -6030,7 +6228,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" customHeight="1">
+    <row r="33" spans="1:7" ht="12" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>192</v>
       </c>
@@ -6041,7 +6239,7 @@
         <v>194</v>
       </c>
       <c r="D33" s="2">
-        <v>2167</v>
+        <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>195</v>
@@ -6053,7 +6251,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1">
+    <row r="34" spans="1:7" ht="12" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>198</v>
       </c>
@@ -6064,7 +6262,7 @@
         <v>200</v>
       </c>
       <c r="D34" s="2">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>201</v>
@@ -6076,7 +6274,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1">
+    <row r="35" spans="1:7" ht="12" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>204</v>
       </c>
@@ -6087,7 +6285,7 @@
         <v>206</v>
       </c>
       <c r="D35" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>207</v>
@@ -6099,7 +6297,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1">
+    <row r="36" spans="1:7" ht="12" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>210</v>
       </c>
@@ -6110,7 +6308,7 @@
         <v>212</v>
       </c>
       <c r="D36" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>213</v>
@@ -6122,7 +6320,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75" customHeight="1">
+    <row r="37" spans="1:7" ht="12" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>216</v>
       </c>
@@ -6133,7 +6331,7 @@
         <v>218</v>
       </c>
       <c r="D37" s="2">
-        <v>9</v>
+        <v>1040</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>219</v>
@@ -6145,7 +6343,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75" customHeight="1">
+    <row r="38" spans="1:7" ht="12" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>222</v>
       </c>
@@ -6156,7 +6354,7 @@
         <v>224</v>
       </c>
       <c r="D38" s="2">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>225</v>
@@ -6168,7 +6366,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1">
+    <row r="39" spans="1:7" ht="12" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>228</v>
       </c>
@@ -6179,7 +6377,7 @@
         <v>230</v>
       </c>
       <c r="D39" s="2">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>231</v>
@@ -6191,7 +6389,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1">
+    <row r="40" spans="1:7" ht="12" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>234</v>
       </c>
@@ -6202,7 +6400,7 @@
         <v>236</v>
       </c>
       <c r="D40" s="2">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>237</v>
@@ -6214,7 +6412,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1">
+    <row r="41" spans="1:7" ht="12" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>240</v>
       </c>
@@ -6225,7 +6423,7 @@
         <v>242</v>
       </c>
       <c r="D41" s="2">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>243</v>
@@ -6237,7 +6435,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1">
+    <row r="42" spans="1:7" ht="12" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>246</v>
       </c>
@@ -6248,7 +6446,7 @@
         <v>248</v>
       </c>
       <c r="D42" s="2">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>249</v>
@@ -6260,7 +6458,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1">
+    <row r="43" spans="1:7" ht="12" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>252</v>
       </c>
@@ -6271,7 +6469,7 @@
         <v>254</v>
       </c>
       <c r="D43" s="2">
-        <v>18</v>
+        <v>576</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>255</v>
@@ -6283,7 +6481,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1">
+    <row r="44" spans="1:7" ht="12" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>258</v>
       </c>
@@ -6294,7 +6492,7 @@
         <v>260</v>
       </c>
       <c r="D44" s="2">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>261</v>
@@ -6306,7 +6504,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.75" customHeight="1">
+    <row r="45" spans="1:7" ht="12" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>264</v>
       </c>
@@ -6317,7 +6515,7 @@
         <v>266</v>
       </c>
       <c r="D45" s="2">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>267</v>
@@ -6329,7 +6527,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.75" customHeight="1">
+    <row r="46" spans="1:7" ht="12" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>270</v>
       </c>
@@ -6340,7 +6538,7 @@
         <v>272</v>
       </c>
       <c r="D46" s="2">
-        <v>1380</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>273</v>
@@ -6352,7 +6550,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="12.75" customHeight="1">
+    <row r="47" spans="1:7" ht="12" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>276</v>
       </c>
@@ -6363,7 +6561,7 @@
         <v>278</v>
       </c>
       <c r="D47" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>279</v>
@@ -6375,7 +6573,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="12.75" customHeight="1">
+    <row r="48" spans="1:7" ht="12" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>282</v>
       </c>
@@ -6386,7 +6584,7 @@
         <v>284</v>
       </c>
       <c r="D48" s="2">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>285</v>
@@ -6398,7 +6596,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="12.75" customHeight="1">
+    <row r="49" spans="1:7" ht="12" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>288</v>
       </c>
@@ -6409,7 +6607,7 @@
         <v>290</v>
       </c>
       <c r="D49" s="2">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>291</v>
@@ -6421,7 +6619,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="12.75" customHeight="1">
+    <row r="50" spans="1:7" ht="12" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>294</v>
       </c>
@@ -6432,7 +6630,7 @@
         <v>296</v>
       </c>
       <c r="D50" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>297</v>
@@ -6444,7 +6642,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="12.75" customHeight="1">
+    <row r="51" spans="1:7" ht="12" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>300</v>
       </c>
@@ -6455,7 +6653,7 @@
         <v>302</v>
       </c>
       <c r="D51" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>303</v>
@@ -6467,7 +6665,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="12.75" customHeight="1">
+    <row r="52" spans="1:7" ht="12" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>306</v>
       </c>
@@ -6478,7 +6676,7 @@
         <v>308</v>
       </c>
       <c r="D52" s="2">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>309</v>
@@ -6490,7 +6688,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="12.75" customHeight="1">
+    <row r="53" spans="1:7" ht="12" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>312</v>
       </c>
@@ -6501,7 +6699,7 @@
         <v>314</v>
       </c>
       <c r="D53" s="2">
-        <v>9</v>
+        <v>1380</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>315</v>
@@ -6513,7 +6711,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="12.75" customHeight="1">
+    <row r="54" spans="1:7" ht="12" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>318</v>
       </c>
@@ -6524,7 +6722,7 @@
         <v>320</v>
       </c>
       <c r="D54" s="2">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>321</v>
@@ -6536,7 +6734,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="12.75" customHeight="1">
+    <row r="55" spans="1:7" ht="12" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>324</v>
       </c>
@@ -6547,7 +6745,7 @@
         <v>326</v>
       </c>
       <c r="D55" s="2">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>327</v>
@@ -6559,7 +6757,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="12.75" customHeight="1">
+    <row r="56" spans="1:7" ht="12" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>330</v>
       </c>
@@ -6570,7 +6768,7 @@
         <v>332</v>
       </c>
       <c r="D56" s="2">
-        <v>572</v>
+        <v>21</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>333</v>
@@ -6582,7 +6780,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="12.75" customHeight="1">
+    <row r="57" spans="1:7" ht="12" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>336</v>
       </c>
@@ -6593,7 +6791,7 @@
         <v>338</v>
       </c>
       <c r="D57" s="2">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>339</v>
@@ -6605,7 +6803,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="12.75" customHeight="1">
+    <row r="58" spans="1:7" ht="12" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>342</v>
       </c>
@@ -6616,7 +6814,7 @@
         <v>344</v>
       </c>
       <c r="D58" s="2">
-        <v>723</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>345</v>
@@ -6628,7 +6826,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="12.75" customHeight="1">
+    <row r="59" spans="1:7" ht="12" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>348</v>
       </c>
@@ -6639,7 +6837,7 @@
         <v>350</v>
       </c>
       <c r="D59" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>351</v>
@@ -6651,7 +6849,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="12.75" customHeight="1">
+    <row r="60" spans="1:7" ht="12" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>354</v>
       </c>
@@ -6662,7 +6860,7 @@
         <v>356</v>
       </c>
       <c r="D60" s="2">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>357</v>
@@ -6674,7 +6872,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="12.75" customHeight="1">
+    <row r="61" spans="1:7" ht="12" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>360</v>
       </c>
@@ -6685,7 +6883,7 @@
         <v>362</v>
       </c>
       <c r="D61" s="2">
-        <v>20</v>
+        <v>1120</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>363</v>
@@ -6697,7 +6895,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="12.75" customHeight="1">
+    <row r="62" spans="1:7" ht="12" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>366</v>
       </c>
@@ -6708,7 +6906,7 @@
         <v>368</v>
       </c>
       <c r="D62" s="2">
-        <v>162</v>
+        <v>1120</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>369</v>
@@ -6720,7 +6918,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="12.75" customHeight="1">
+    <row r="63" spans="1:7" ht="12" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>372</v>
       </c>
@@ -6731,7 +6929,7 @@
         <v>374</v>
       </c>
       <c r="D63" s="2">
-        <v>26</v>
+        <v>600</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>375</v>
@@ -6743,7 +6941,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="12.75" customHeight="1">
+    <row r="64" spans="1:7" ht="12" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>378</v>
       </c>
@@ -6754,7 +6952,7 @@
         <v>380</v>
       </c>
       <c r="D64" s="2">
-        <v>40</v>
+        <v>600</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>381</v>
@@ -6766,7 +6964,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="12.75" customHeight="1">
+    <row r="65" spans="1:7" ht="12" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>384</v>
       </c>
@@ -6777,7 +6975,7 @@
         <v>386</v>
       </c>
       <c r="D65" s="2">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>387</v>
@@ -6789,7 +6987,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="12.75" customHeight="1">
+    <row r="66" spans="1:7" ht="12" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>390</v>
       </c>
@@ -6800,7 +6998,7 @@
         <v>392</v>
       </c>
       <c r="D66" s="2">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>393</v>
@@ -6812,7 +7010,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="12.75" customHeight="1">
+    <row r="67" spans="1:7" ht="12" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>396</v>
       </c>
@@ -6823,7 +7021,7 @@
         <v>398</v>
       </c>
       <c r="D67" s="2">
-        <v>157</v>
+        <v>572</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>399</v>
@@ -6835,7 +7033,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="12.75" customHeight="1">
+    <row r="68" spans="1:7" ht="12" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>402</v>
       </c>
@@ -6846,7 +7044,7 @@
         <v>404</v>
       </c>
       <c r="D68" s="2">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>405</v>
@@ -6858,7 +7056,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="12.75" customHeight="1">
+    <row r="69" spans="1:7" ht="12" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>408</v>
       </c>
@@ -6869,7 +7067,7 @@
         <v>410</v>
       </c>
       <c r="D69" s="2">
-        <v>28</v>
+        <v>723</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>411</v>
@@ -6881,7 +7079,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="12.75" customHeight="1">
+    <row r="70" spans="1:7" ht="12" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>414</v>
       </c>
@@ -6892,7 +7090,7 @@
         <v>416</v>
       </c>
       <c r="D70" s="2">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>417</v>
@@ -6904,7 +7102,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="12.75" customHeight="1">
+    <row r="71" spans="1:7" ht="12" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>420</v>
       </c>
@@ -6915,7 +7113,7 @@
         <v>422</v>
       </c>
       <c r="D71" s="2">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>423</v>
@@ -6927,7 +7125,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="12.75" customHeight="1">
+    <row r="72" spans="1:7" ht="12" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>426</v>
       </c>
@@ -6938,7 +7136,7 @@
         <v>428</v>
       </c>
       <c r="D72" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>429</v>
@@ -6950,7 +7148,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="12.75" customHeight="1">
+    <row r="73" spans="1:7" ht="12" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>432</v>
       </c>
@@ -6961,7 +7159,7 @@
         <v>434</v>
       </c>
       <c r="D73" s="2">
-        <v>5</v>
+        <v>162</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>435</v>
@@ -6973,7 +7171,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="12.75" customHeight="1">
+    <row r="74" spans="1:7" ht="12" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>438</v>
       </c>
@@ -6984,7 +7182,7 @@
         <v>440</v>
       </c>
       <c r="D74" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>441</v>
@@ -6996,7 +7194,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="12.75" customHeight="1">
+    <row r="75" spans="1:7" ht="12" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>444</v>
       </c>
@@ -7007,7 +7205,7 @@
         <v>446</v>
       </c>
       <c r="D75" s="2">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>447</v>
@@ -7019,7 +7217,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="12.75" customHeight="1">
+    <row r="76" spans="1:7" ht="12" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>450</v>
       </c>
@@ -7030,7 +7228,7 @@
         <v>452</v>
       </c>
       <c r="D76" s="2">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>453</v>
@@ -7042,7 +7240,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="12.75" customHeight="1">
+    <row r="77" spans="1:7" ht="12" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>456</v>
       </c>
@@ -7053,7 +7251,7 @@
         <v>458</v>
       </c>
       <c r="D77" s="2">
-        <v>1390</v>
+        <v>234</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>459</v>
@@ -7065,7 +7263,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="12.75" customHeight="1">
+    <row r="78" spans="1:7" ht="12" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>462</v>
       </c>
@@ -7076,7 +7274,7 @@
         <v>464</v>
       </c>
       <c r="D78" s="2">
-        <v>2800</v>
+        <v>157</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>465</v>
@@ -7088,7 +7286,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="12.75" customHeight="1">
+    <row r="79" spans="1:7" ht="12" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>468</v>
       </c>
@@ -7099,7 +7297,7 @@
         <v>470</v>
       </c>
       <c r="D79" s="2">
-        <v>980</v>
+        <v>39</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>471</v>
@@ -7111,7 +7309,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="12.75" customHeight="1">
+    <row r="80" spans="1:7" ht="12" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>474</v>
       </c>
@@ -7122,7 +7320,7 @@
         <v>476</v>
       </c>
       <c r="D80" s="2">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>477</v>
@@ -7134,7 +7332,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="12.75" customHeight="1">
+    <row r="81" spans="1:7" ht="12" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>480</v>
       </c>
@@ -7145,7 +7343,7 @@
         <v>482</v>
       </c>
       <c r="D81" s="2">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>483</v>
@@ -7157,7 +7355,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="12.75" customHeight="1">
+    <row r="82" spans="1:7" ht="12" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>486</v>
       </c>
@@ -7168,7 +7366,7 @@
         <v>488</v>
       </c>
       <c r="D82" s="2">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>489</v>
@@ -7180,7 +7378,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="12.75" customHeight="1">
+    <row r="83" spans="1:7" ht="12" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>492</v>
       </c>
@@ -7191,7 +7389,7 @@
         <v>494</v>
       </c>
       <c r="D83" s="2">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>495</v>
@@ -7203,7 +7401,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="12.75" customHeight="1">
+    <row r="84" spans="1:7" ht="12" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>498</v>
       </c>
@@ -7214,7 +7412,7 @@
         <v>500</v>
       </c>
       <c r="D84" s="2">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>501</v>
@@ -7226,7 +7424,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="12.75" customHeight="1">
+    <row r="85" spans="1:7" ht="12" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>504</v>
       </c>
@@ -7237,7 +7435,7 @@
         <v>506</v>
       </c>
       <c r="D85" s="2">
-        <v>740</v>
+        <v>6</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>507</v>
@@ -7249,7 +7447,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="12.75" customHeight="1">
+    <row r="86" spans="1:7" ht="12" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>510</v>
       </c>
@@ -7260,7 +7458,7 @@
         <v>512</v>
       </c>
       <c r="D86" s="2">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>513</v>
@@ -7272,7 +7470,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="12.75" customHeight="1">
+    <row r="87" spans="1:7" ht="12" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>516</v>
       </c>
@@ -7283,7 +7481,7 @@
         <v>518</v>
       </c>
       <c r="D87" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>519</v>
@@ -7295,7 +7493,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="12.75" customHeight="1">
+    <row r="88" spans="1:7" ht="12" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>522</v>
       </c>
@@ -7306,7 +7504,7 @@
         <v>524</v>
       </c>
       <c r="D88" s="2">
-        <v>40</v>
+        <v>1390</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>525</v>
@@ -7318,7 +7516,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="12.75" customHeight="1">
+    <row r="89" spans="1:7" ht="12" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>528</v>
       </c>
@@ -7329,7 +7527,7 @@
         <v>530</v>
       </c>
       <c r="D89" s="2">
-        <v>122</v>
+        <v>3600</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>531</v>
@@ -7341,7 +7539,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="12.75" customHeight="1">
+    <row r="90" spans="1:7" ht="12" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>534</v>
       </c>
@@ -7352,7 +7550,7 @@
         <v>536</v>
       </c>
       <c r="D90" s="2">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>537</v>
@@ -7364,7 +7562,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="12.75" customHeight="1">
+    <row r="91" spans="1:7" ht="12" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>540</v>
       </c>
@@ -7375,7 +7573,7 @@
         <v>542</v>
       </c>
       <c r="D91" s="2">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>543</v>
@@ -7387,7 +7585,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="12.75" customHeight="1">
+    <row r="92" spans="1:7" ht="12" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>546</v>
       </c>
@@ -7398,7 +7596,7 @@
         <v>548</v>
       </c>
       <c r="D92" s="2">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>549</v>
@@ -7410,7 +7608,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="12.75" customHeight="1">
+    <row r="93" spans="1:7" ht="12" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>552</v>
       </c>
@@ -7421,7 +7619,7 @@
         <v>554</v>
       </c>
       <c r="D93" s="2">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>555</v>
@@ -7433,7 +7631,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="12.75" customHeight="1">
+    <row r="94" spans="1:7" ht="12" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>558</v>
       </c>
@@ -7444,7 +7642,7 @@
         <v>560</v>
       </c>
       <c r="D94" s="2">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>561</v>
@@ -7456,7 +7654,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="12.75" customHeight="1">
+    <row r="95" spans="1:7" ht="12" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>564</v>
       </c>
@@ -7467,7 +7665,7 @@
         <v>566</v>
       </c>
       <c r="D95" s="2">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>567</v>
@@ -7479,7 +7677,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="12.75" customHeight="1">
+    <row r="96" spans="1:7" ht="12" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>570</v>
       </c>
@@ -7490,7 +7688,7 @@
         <v>572</v>
       </c>
       <c r="D96" s="2">
-        <v>52</v>
+        <v>740</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>573</v>
@@ -7502,7 +7700,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="12.75" customHeight="1">
+    <row r="97" spans="1:7" ht="12" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>576</v>
       </c>
@@ -7513,7 +7711,7 @@
         <v>578</v>
       </c>
       <c r="D97" s="2">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>579</v>
@@ -7525,7 +7723,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="12.75" customHeight="1">
+    <row r="98" spans="1:7" ht="12" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>582</v>
       </c>
@@ -7536,7 +7734,7 @@
         <v>584</v>
       </c>
       <c r="D98" s="2">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>585</v>
@@ -7548,7 +7746,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="12.75" customHeight="1">
+    <row r="99" spans="1:7" ht="12" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>588</v>
       </c>
@@ -7559,7 +7757,7 @@
         <v>590</v>
       </c>
       <c r="D99" s="2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>591</v>
@@ -7571,7 +7769,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="12.75" customHeight="1">
+    <row r="100" spans="1:7" ht="12" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>594</v>
       </c>
@@ -7582,7 +7780,7 @@
         <v>596</v>
       </c>
       <c r="D100" s="2">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>597</v>
@@ -7594,7 +7792,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="12.75" customHeight="1">
+    <row r="101" spans="1:7" ht="12" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>600</v>
       </c>
@@ -7605,7 +7803,7 @@
         <v>602</v>
       </c>
       <c r="D101" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>603</v>
@@ -7617,7 +7815,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="12.75" customHeight="1">
+    <row r="102" spans="1:7" ht="12" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>606</v>
       </c>
@@ -7628,7 +7826,7 @@
         <v>608</v>
       </c>
       <c r="D102" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>609</v>
@@ -7640,7 +7838,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="12.75" customHeight="1">
+    <row r="103" spans="1:7" ht="12" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>612</v>
       </c>
@@ -7651,7 +7849,7 @@
         <v>614</v>
       </c>
       <c r="D103" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>615</v>
@@ -7663,7 +7861,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="12.75" customHeight="1">
+    <row r="104" spans="1:7" ht="12" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>618</v>
       </c>
@@ -7674,7 +7872,7 @@
         <v>620</v>
       </c>
       <c r="D104" s="2">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>621</v>
@@ -7686,7 +7884,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="12.75" customHeight="1">
+    <row r="105" spans="1:7" ht="12" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>624</v>
       </c>
@@ -7697,7 +7895,7 @@
         <v>626</v>
       </c>
       <c r="D105" s="2">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>627</v>
@@ -7709,7 +7907,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="12.75" customHeight="1">
+    <row r="106" spans="1:7" ht="12" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>630</v>
       </c>
@@ -7720,7 +7918,7 @@
         <v>632</v>
       </c>
       <c r="D106" s="2">
-        <v>1375</v>
+        <v>20</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>633</v>
@@ -7732,7 +7930,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="12.75" customHeight="1">
+    <row r="107" spans="1:7" ht="12" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>636</v>
       </c>
@@ -7743,7 +7941,7 @@
         <v>638</v>
       </c>
       <c r="D107" s="2">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>639</v>
@@ -7755,7 +7953,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="12.75" customHeight="1">
+    <row r="108" spans="1:7" ht="12" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>642</v>
       </c>
@@ -7766,7 +7964,7 @@
         <v>644</v>
       </c>
       <c r="D108" s="2">
-        <v>2206</v>
+        <v>200</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>645</v>
@@ -7778,7 +7976,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="12.75" customHeight="1">
+    <row r="109" spans="1:7" ht="12" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>648</v>
       </c>
@@ -7789,7 +7987,7 @@
         <v>650</v>
       </c>
       <c r="D109" s="2">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>651</v>
@@ -7801,7 +7999,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="12.75" customHeight="1">
+    <row r="110" spans="1:7" ht="12" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>654</v>
       </c>
@@ -7812,7 +8010,7 @@
         <v>656</v>
       </c>
       <c r="D110" s="2">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>657</v>
@@ -7824,7 +8022,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="12.75" customHeight="1">
+    <row r="111" spans="1:7" ht="12" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>660</v>
       </c>
@@ -7835,7 +8033,7 @@
         <v>662</v>
       </c>
       <c r="D111" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>663</v>
@@ -7847,7 +8045,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="12.75" customHeight="1">
+    <row r="112" spans="1:7" ht="12" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>666</v>
       </c>
@@ -7858,7 +8056,7 @@
         <v>668</v>
       </c>
       <c r="D112" s="2">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>669</v>
@@ -7870,7 +8068,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="12.75" customHeight="1">
+    <row r="113" spans="1:7" ht="12" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>672</v>
       </c>
@@ -7881,7 +8079,7 @@
         <v>674</v>
       </c>
       <c r="D113" s="2">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>675</v>
@@ -7893,7 +8091,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="12.75" customHeight="1">
+    <row r="114" spans="1:7" ht="12" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>678</v>
       </c>
@@ -7904,7 +8102,7 @@
         <v>680</v>
       </c>
       <c r="D114" s="2">
-        <v>149</v>
+        <v>9</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>681</v>
@@ -7916,7 +8114,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="12.75" customHeight="1">
+    <row r="115" spans="1:7" ht="12" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>684</v>
       </c>
@@ -7927,7 +8125,7 @@
         <v>686</v>
       </c>
       <c r="D115" s="2">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>687</v>
@@ -7939,7 +8137,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="12.75" customHeight="1">
+    <row r="116" spans="1:7" ht="12" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>690</v>
       </c>
@@ -7950,7 +8148,7 @@
         <v>692</v>
       </c>
       <c r="D116" s="2">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>693</v>
@@ -7962,7 +8160,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="12.75" customHeight="1">
+    <row r="117" spans="1:7" ht="12" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>696</v>
       </c>
@@ -7973,7 +8171,7 @@
         <v>698</v>
       </c>
       <c r="D117" s="2">
-        <v>38</v>
+        <v>1075</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>699</v>
@@ -7985,7 +8183,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="12.75" customHeight="1">
+    <row r="118" spans="1:7" ht="12" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>702</v>
       </c>
@@ -7996,7 +8194,7 @@
         <v>704</v>
       </c>
       <c r="D118" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>705</v>
@@ -8008,7 +8206,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="12.75" customHeight="1">
+    <row r="119" spans="1:7" ht="12" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>708</v>
       </c>
@@ -8019,7 +8217,7 @@
         <v>710</v>
       </c>
       <c r="D119" s="2">
-        <v>46</v>
+        <v>2206</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>711</v>
@@ -8031,7 +8229,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="12.75" customHeight="1">
+    <row r="120" spans="1:7" ht="12" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>714</v>
       </c>
@@ -8042,7 +8240,7 @@
         <v>716</v>
       </c>
       <c r="D120" s="2">
-        <v>12818</v>
+        <v>1</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>717</v>
@@ -8054,7 +8252,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="12.75" customHeight="1">
+    <row r="121" spans="1:7" ht="12" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>720</v>
       </c>
@@ -8065,7 +8263,7 @@
         <v>722</v>
       </c>
       <c r="D121" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>723</v>
@@ -8077,7 +8275,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="12.75" customHeight="1">
+    <row r="122" spans="1:7" ht="12" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>726</v>
       </c>
@@ -8088,7 +8286,7 @@
         <v>728</v>
       </c>
       <c r="D122" s="2">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>729</v>
@@ -8100,7 +8298,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="12.75" customHeight="1">
+    <row r="123" spans="1:7" ht="12" customHeight="1">
       <c r="A123" s="3" t="s">
         <v>732</v>
       </c>
@@ -8111,7 +8309,7 @@
         <v>734</v>
       </c>
       <c r="D123" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>735</v>
@@ -8123,7 +8321,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="12.75" customHeight="1">
+    <row r="124" spans="1:7" ht="12" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>738</v>
       </c>
@@ -8134,7 +8332,7 @@
         <v>740</v>
       </c>
       <c r="D124" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>741</v>
@@ -8146,7 +8344,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="12.75" customHeight="1">
+    <row r="125" spans="1:7" ht="12" customHeight="1">
       <c r="A125" s="3" t="s">
         <v>744</v>
       </c>
@@ -8157,7 +8355,7 @@
         <v>746</v>
       </c>
       <c r="D125" s="2">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>747</v>
@@ -8169,7 +8367,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="12.75" customHeight="1">
+    <row r="126" spans="1:7" ht="12" customHeight="1">
       <c r="A126" s="3" t="s">
         <v>750</v>
       </c>
@@ -8180,7 +8378,7 @@
         <v>752</v>
       </c>
       <c r="D126" s="2">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>753</v>
@@ -8192,7 +8390,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="12.75" customHeight="1">
+    <row r="127" spans="1:7" ht="12" customHeight="1">
       <c r="A127" s="3" t="s">
         <v>756</v>
       </c>
@@ -8203,7 +8401,7 @@
         <v>758</v>
       </c>
       <c r="D127" s="2">
-        <v>4960</v>
+        <v>180</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>759</v>
@@ -8215,7 +8413,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="12.75" customHeight="1">
+    <row r="128" spans="1:7" ht="12" customHeight="1">
       <c r="A128" s="3" t="s">
         <v>762</v>
       </c>
@@ -8226,7 +8424,7 @@
         <v>764</v>
       </c>
       <c r="D128" s="2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>765</v>
@@ -8238,7 +8436,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="12.75" customHeight="1">
+    <row r="129" spans="1:7" ht="12" customHeight="1">
       <c r="A129" s="3" t="s">
         <v>768</v>
       </c>
@@ -8249,7 +8447,7 @@
         <v>770</v>
       </c>
       <c r="D129" s="2">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>771</v>
@@ -8261,7 +8459,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="12.75" customHeight="1">
+    <row r="130" spans="1:7" ht="12" customHeight="1">
       <c r="A130" s="3" t="s">
         <v>774</v>
       </c>
@@ -8272,7 +8470,7 @@
         <v>776</v>
       </c>
       <c r="D130" s="2">
-        <v>411</v>
+        <v>46</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>777</v>
@@ -8284,7 +8482,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="12.75" customHeight="1">
+    <row r="131" spans="1:7" ht="12" customHeight="1">
       <c r="A131" s="3" t="s">
         <v>780</v>
       </c>
@@ -8295,7 +8493,7 @@
         <v>782</v>
       </c>
       <c r="D131" s="2">
-        <v>357</v>
+        <v>12818</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>783</v>
@@ -8307,7 +8505,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="12.75" customHeight="1">
+    <row r="132" spans="1:7" ht="12" customHeight="1">
       <c r="A132" s="3" t="s">
         <v>786</v>
       </c>
@@ -8318,7 +8516,7 @@
         <v>788</v>
       </c>
       <c r="D132" s="2">
-        <v>356</v>
+        <v>26</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>789</v>
@@ -8330,7 +8528,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="12.75" customHeight="1">
+    <row r="133" spans="1:7" ht="12" customHeight="1">
       <c r="A133" s="3" t="s">
         <v>792</v>
       </c>
@@ -8341,7 +8539,7 @@
         <v>794</v>
       </c>
       <c r="D133" s="2">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>795</v>
@@ -8353,7 +8551,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="12.75" customHeight="1">
+    <row r="134" spans="1:7" ht="12" customHeight="1">
       <c r="A134" s="3" t="s">
         <v>798</v>
       </c>
@@ -8364,7 +8562,7 @@
         <v>800</v>
       </c>
       <c r="D134" s="2">
-        <v>918</v>
+        <v>22</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>801</v>
@@ -8376,7 +8574,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="12.75" customHeight="1">
+    <row r="135" spans="1:7" ht="12" customHeight="1">
       <c r="A135" s="3" t="s">
         <v>804</v>
       </c>
@@ -8387,7 +8585,7 @@
         <v>806</v>
       </c>
       <c r="D135" s="2">
-        <v>1445</v>
+        <v>5</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>807</v>
@@ -8399,7 +8597,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="12.75" customHeight="1">
+    <row r="136" spans="1:7" ht="12" customHeight="1">
       <c r="A136" s="3" t="s">
         <v>810</v>
       </c>
@@ -8410,7 +8608,7 @@
         <v>812</v>
       </c>
       <c r="D136" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>813</v>
@@ -8422,7 +8620,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="12.75" customHeight="1">
+    <row r="137" spans="1:7" ht="12" customHeight="1">
       <c r="A137" s="3" t="s">
         <v>816</v>
       </c>
@@ -8433,7 +8631,7 @@
         <v>818</v>
       </c>
       <c r="D137" s="2">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>819</v>
@@ -8445,7 +8643,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="12.75" customHeight="1">
+    <row r="138" spans="1:7" ht="12" customHeight="1">
       <c r="A138" s="3" t="s">
         <v>822</v>
       </c>
@@ -8456,7 +8654,7 @@
         <v>824</v>
       </c>
       <c r="D138" s="2">
-        <v>24</v>
+        <v>1960</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>825</v>
@@ -8468,7 +8666,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="12.75" customHeight="1">
+    <row r="139" spans="1:7" ht="12" customHeight="1">
       <c r="A139" s="3" t="s">
         <v>828</v>
       </c>
@@ -8479,7 +8677,7 @@
         <v>830</v>
       </c>
       <c r="D139" s="2">
-        <v>29330</v>
+        <v>0</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>831</v>
@@ -8491,7 +8689,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="12.75" customHeight="1">
+    <row r="140" spans="1:7" ht="12" customHeight="1">
       <c r="A140" s="3" t="s">
         <v>834</v>
       </c>
@@ -8502,7 +8700,7 @@
         <v>836</v>
       </c>
       <c r="D140" s="2">
-        <v>29336</v>
+        <v>0</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>837</v>
@@ -8514,7 +8712,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="12.75" customHeight="1">
+    <row r="141" spans="1:7" ht="12" customHeight="1">
       <c r="A141" s="3" t="s">
         <v>840</v>
       </c>
@@ -8525,7 +8723,7 @@
         <v>842</v>
       </c>
       <c r="D141" s="2">
-        <v>50</v>
+        <v>411</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>843</v>
@@ -8537,7 +8735,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="12.75" customHeight="1">
+    <row r="142" spans="1:7" ht="12" customHeight="1">
       <c r="A142" s="3" t="s">
         <v>846</v>
       </c>
@@ -8548,7 +8746,7 @@
         <v>848</v>
       </c>
       <c r="D142" s="2">
-        <v>50</v>
+        <v>357</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>849</v>
@@ -8560,7 +8758,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="12.75" customHeight="1">
+    <row r="143" spans="1:7" ht="12" customHeight="1">
       <c r="A143" s="3" t="s">
         <v>852</v>
       </c>
@@ -8571,7 +8769,7 @@
         <v>854</v>
       </c>
       <c r="D143" s="2">
-        <v>108</v>
+        <v>356</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>855</v>
@@ -8583,7 +8781,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="12.75" customHeight="1">
+    <row r="144" spans="1:7" ht="12" customHeight="1">
       <c r="A144" s="3" t="s">
         <v>858</v>
       </c>
@@ -8594,7 +8792,7 @@
         <v>860</v>
       </c>
       <c r="D144" s="2">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>861</v>
@@ -8606,7 +8804,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="12.75" customHeight="1">
+    <row r="145" spans="1:7" ht="12" customHeight="1">
       <c r="A145" s="3" t="s">
         <v>864</v>
       </c>
@@ -8617,7 +8815,7 @@
         <v>866</v>
       </c>
       <c r="D145" s="2">
-        <v>64</v>
+        <v>918</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>867</v>
@@ -8629,7 +8827,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="12.75" customHeight="1">
+    <row r="146" spans="1:7" ht="12" customHeight="1">
       <c r="A146" s="3" t="s">
         <v>870</v>
       </c>
@@ -8640,7 +8838,7 @@
         <v>872</v>
       </c>
       <c r="D146" s="2">
-        <v>64</v>
+        <v>1445</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>873</v>
@@ -8652,7 +8850,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="12.75" customHeight="1">
+    <row r="147" spans="1:7" ht="12" customHeight="1">
       <c r="A147" s="3" t="s">
         <v>876</v>
       </c>
@@ -8663,7 +8861,7 @@
         <v>878</v>
       </c>
       <c r="D147" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>879</v>
@@ -8675,7 +8873,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="12.75" customHeight="1">
+    <row r="148" spans="1:7" ht="12" customHeight="1">
       <c r="A148" s="3" t="s">
         <v>882</v>
       </c>
@@ -8686,7 +8884,7 @@
         <v>884</v>
       </c>
       <c r="D148" s="2">
-        <v>29</v>
+        <v>10000</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>885</v>
@@ -8698,7 +8896,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="12.75" customHeight="1">
+    <row r="149" spans="1:7" ht="12" customHeight="1">
       <c r="A149" s="3" t="s">
         <v>888</v>
       </c>
@@ -8709,7 +8907,7 @@
         <v>890</v>
       </c>
       <c r="D149" s="2">
-        <v>5134</v>
+        <v>24</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>891</v>
@@ -8721,7 +8919,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="12.75" customHeight="1">
+    <row r="150" spans="1:7" ht="12" customHeight="1">
       <c r="A150" s="3" t="s">
         <v>894</v>
       </c>
@@ -8732,7 +8930,7 @@
         <v>896</v>
       </c>
       <c r="D150" s="2">
-        <v>1660</v>
+        <v>24</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>897</v>
@@ -8744,7 +8942,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="12.75" customHeight="1">
+    <row r="151" spans="1:7" ht="12" customHeight="1">
       <c r="A151" s="3" t="s">
         <v>900</v>
       </c>
@@ -8755,7 +8953,7 @@
         <v>902</v>
       </c>
       <c r="D151" s="2">
-        <v>786</v>
+        <v>29330</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>903</v>
@@ -8767,7 +8965,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="12.75" customHeight="1">
+    <row r="152" spans="1:7" ht="12" customHeight="1">
       <c r="A152" s="3" t="s">
         <v>906</v>
       </c>
@@ -8778,7 +8976,7 @@
         <v>908</v>
       </c>
       <c r="D152" s="2">
-        <v>1836</v>
+        <v>29336</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>909</v>
@@ -8790,7 +8988,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="12.75" customHeight="1">
+    <row r="153" spans="1:7" ht="12" customHeight="1">
       <c r="A153" s="3" t="s">
         <v>912</v>
       </c>
@@ -8801,7 +8999,7 @@
         <v>914</v>
       </c>
       <c r="D153" s="2">
-        <v>9739</v>
+        <v>50</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>915</v>
@@ -8813,7 +9011,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="12.75" customHeight="1">
+    <row r="154" spans="1:7" ht="12" customHeight="1">
       <c r="A154" s="3" t="s">
         <v>918</v>
       </c>
@@ -8824,7 +9022,7 @@
         <v>920</v>
       </c>
       <c r="D154" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>921</v>
@@ -8836,7 +9034,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="12.75" customHeight="1">
+    <row r="155" spans="1:7" ht="12" customHeight="1">
       <c r="A155" s="3" t="s">
         <v>924</v>
       </c>
@@ -8847,7 +9045,7 @@
         <v>926</v>
       </c>
       <c r="D155" s="2">
-        <v>477</v>
+        <v>108</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>927</v>
@@ -8859,7 +9057,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="12.75" customHeight="1">
+    <row r="156" spans="1:7" ht="12" customHeight="1">
       <c r="A156" s="3" t="s">
         <v>930</v>
       </c>
@@ -8870,7 +9068,7 @@
         <v>932</v>
       </c>
       <c r="D156" s="2">
-        <v>7225</v>
+        <v>62</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>933</v>
@@ -8882,7 +9080,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="12.75" customHeight="1">
+    <row r="157" spans="1:7" ht="12" customHeight="1">
       <c r="A157" s="3" t="s">
         <v>936</v>
       </c>
@@ -8893,7 +9091,7 @@
         <v>938</v>
       </c>
       <c r="D157" s="2">
-        <v>500</v>
+        <v>64</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>939</v>
@@ -8905,7 +9103,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="12.75" customHeight="1">
+    <row r="158" spans="1:7" ht="12" customHeight="1">
       <c r="A158" s="3" t="s">
         <v>942</v>
       </c>
@@ -8916,7 +9114,7 @@
         <v>944</v>
       </c>
       <c r="D158" s="2">
-        <v>506</v>
+        <v>64</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>945</v>
@@ -8928,7 +9126,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="12.75" customHeight="1">
+    <row r="159" spans="1:7" ht="12" customHeight="1">
       <c r="A159" s="3" t="s">
         <v>948</v>
       </c>
@@ -8939,7 +9137,7 @@
         <v>950</v>
       </c>
       <c r="D159" s="2">
-        <v>276</v>
+        <v>2</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>951</v>
@@ -8951,7 +9149,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="12.75" customHeight="1">
+    <row r="160" spans="1:7" ht="12" customHeight="1">
       <c r="A160" s="3" t="s">
         <v>954</v>
       </c>
@@ -8962,7 +9160,7 @@
         <v>956</v>
       </c>
       <c r="D160" s="2">
-        <v>505</v>
+        <v>29</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>957</v>
@@ -8974,7 +9172,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="12.75" customHeight="1">
+    <row r="161" spans="1:7" ht="12" customHeight="1">
       <c r="A161" s="3" t="s">
         <v>960</v>
       </c>
@@ -8985,7 +9183,7 @@
         <v>962</v>
       </c>
       <c r="D161" s="2">
-        <v>670</v>
+        <v>5134</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>963</v>
@@ -8997,7 +9195,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="12.75" customHeight="1">
+    <row r="162" spans="1:7" ht="12" customHeight="1">
       <c r="A162" s="3" t="s">
         <v>966</v>
       </c>
@@ -9008,7 +9206,7 @@
         <v>968</v>
       </c>
       <c r="D162" s="2">
-        <v>5278</v>
+        <v>1660</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>969</v>
@@ -9020,7 +9218,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="12.75" customHeight="1">
+    <row r="163" spans="1:7" ht="12" customHeight="1">
       <c r="A163" s="3" t="s">
         <v>972</v>
       </c>
@@ -9031,7 +9229,7 @@
         <v>974</v>
       </c>
       <c r="D163" s="2">
-        <v>1027</v>
+        <v>786</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>975</v>
@@ -9043,7 +9241,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="12.75" customHeight="1">
+    <row r="164" spans="1:7" ht="12" customHeight="1">
       <c r="A164" s="3" t="s">
         <v>978</v>
       </c>
@@ -9054,7 +9252,7 @@
         <v>980</v>
       </c>
       <c r="D164" s="2">
-        <v>82</v>
+        <v>1836</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>981</v>
@@ -9066,7 +9264,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="12.75" customHeight="1">
+    <row r="165" spans="1:7" ht="12" customHeight="1">
       <c r="A165" s="3" t="s">
         <v>984</v>
       </c>
@@ -9077,7 +9275,7 @@
         <v>986</v>
       </c>
       <c r="D165" s="2">
-        <v>3732</v>
+        <v>9739</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>987</v>
@@ -9089,7 +9287,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="12.75" customHeight="1">
+    <row r="166" spans="1:7" ht="12" customHeight="1">
       <c r="A166" s="3" t="s">
         <v>990</v>
       </c>
@@ -9100,7 +9298,7 @@
         <v>992</v>
       </c>
       <c r="D166" s="2">
-        <v>864</v>
+        <v>100</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>993</v>
@@ -9112,7 +9310,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="12.75" customHeight="1">
+    <row r="167" spans="1:7" ht="12" customHeight="1">
       <c r="A167" s="3" t="s">
         <v>996</v>
       </c>
@@ -9123,7 +9321,7 @@
         <v>998</v>
       </c>
       <c r="D167" s="2">
-        <v>964</v>
+        <v>477</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>999</v>
@@ -9135,7 +9333,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="12.75" customHeight="1">
+    <row r="168" spans="1:7" ht="12" customHeight="1">
       <c r="A168" s="3" t="s">
         <v>1002</v>
       </c>
@@ -9146,7 +9344,7 @@
         <v>1004</v>
       </c>
       <c r="D168" s="2">
-        <v>415</v>
+        <v>7225</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>1005</v>
@@ -9158,7 +9356,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="12.75" customHeight="1">
+    <row r="169" spans="1:7" ht="12" customHeight="1">
       <c r="A169" s="3" t="s">
         <v>1008</v>
       </c>
@@ -9169,7 +9367,7 @@
         <v>1010</v>
       </c>
       <c r="D169" s="2">
-        <v>19956</v>
+        <v>500</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>1011</v>
@@ -9181,7 +9379,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="12.75" customHeight="1">
+    <row r="170" spans="1:7" ht="12" customHeight="1">
       <c r="A170" s="3" t="s">
         <v>1014</v>
       </c>
@@ -9192,7 +9390,7 @@
         <v>1016</v>
       </c>
       <c r="D170" s="2">
-        <v>9437</v>
+        <v>506</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>1017</v>
@@ -9204,7 +9402,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="12.75" customHeight="1">
+    <row r="171" spans="1:7" ht="12" customHeight="1">
       <c r="A171" s="3" t="s">
         <v>1020</v>
       </c>
@@ -9215,7 +9413,7 @@
         <v>1022</v>
       </c>
       <c r="D171" s="2">
-        <v>153</v>
+        <v>276</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>1023</v>
@@ -9227,7 +9425,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="12.75" customHeight="1">
+    <row r="172" spans="1:7" ht="12" customHeight="1">
       <c r="A172" s="3" t="s">
         <v>1026</v>
       </c>
@@ -9238,7 +9436,7 @@
         <v>1028</v>
       </c>
       <c r="D172" s="2">
-        <v>146</v>
+        <v>505</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>1029</v>
@@ -9250,7 +9448,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="12.75" customHeight="1">
+    <row r="173" spans="1:7" ht="12" customHeight="1">
       <c r="A173" s="3" t="s">
         <v>1032</v>
       </c>
@@ -9261,7 +9459,7 @@
         <v>1034</v>
       </c>
       <c r="D173" s="2">
-        <v>24710</v>
+        <v>670</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>1035</v>
@@ -9273,7 +9471,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="12.75" customHeight="1">
+    <row r="174" spans="1:7" ht="12" customHeight="1">
       <c r="A174" s="3" t="s">
         <v>1038</v>
       </c>
@@ -9284,7 +9482,7 @@
         <v>1040</v>
       </c>
       <c r="D174" s="2">
-        <v>11228</v>
+        <v>5278</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>1041</v>
@@ -9296,7 +9494,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="12.75" customHeight="1">
+    <row r="175" spans="1:7" ht="12" customHeight="1">
       <c r="A175" s="3" t="s">
         <v>1044</v>
       </c>
@@ -9307,7 +9505,7 @@
         <v>1046</v>
       </c>
       <c r="D175" s="2">
-        <v>9000</v>
+        <v>1027</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>1047</v>
@@ -9319,7 +9517,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="12.75" customHeight="1">
+    <row r="176" spans="1:7" ht="12" customHeight="1">
       <c r="A176" s="3" t="s">
         <v>1050</v>
       </c>
@@ -9330,7 +9528,7 @@
         <v>1052</v>
       </c>
       <c r="D176" s="2">
-        <v>18000</v>
+        <v>82</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>1053</v>
@@ -9342,7 +9540,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="12.75" customHeight="1">
+    <row r="177" spans="1:7" ht="12" customHeight="1">
       <c r="A177" s="3" t="s">
         <v>1056</v>
       </c>
@@ -9353,7 +9551,7 @@
         <v>1058</v>
       </c>
       <c r="D177" s="2">
-        <v>16000</v>
+        <v>3732</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>1059</v>
@@ -9365,7 +9563,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="12.75" customHeight="1">
+    <row r="178" spans="1:7" ht="12" customHeight="1">
       <c r="A178" s="3" t="s">
         <v>1062</v>
       </c>
@@ -9376,7 +9574,7 @@
         <v>1064</v>
       </c>
       <c r="D178" s="2">
-        <v>315940</v>
+        <v>864</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>1065</v>
@@ -9388,7 +9586,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="12.75" customHeight="1">
+    <row r="179" spans="1:7" ht="12" customHeight="1">
       <c r="A179" s="3" t="s">
         <v>1068</v>
       </c>
@@ -9399,7 +9597,7 @@
         <v>1070</v>
       </c>
       <c r="D179" s="2">
-        <v>91892</v>
+        <v>964</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>1071</v>
@@ -9411,7 +9609,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="12.75" customHeight="1">
+    <row r="180" spans="1:7" ht="12" customHeight="1">
       <c r="A180" s="3" t="s">
         <v>1074</v>
       </c>
@@ -9422,7 +9620,7 @@
         <v>1076</v>
       </c>
       <c r="D180" s="2">
-        <v>278</v>
+        <v>415</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>1077</v>
@@ -9434,7 +9632,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="12.75" customHeight="1">
+    <row r="181" spans="1:7" ht="12" customHeight="1">
       <c r="A181" s="3" t="s">
         <v>1080</v>
       </c>
@@ -9445,7 +9643,7 @@
         <v>1082</v>
       </c>
       <c r="D181" s="2">
-        <v>496</v>
+        <v>19956</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>1083</v>
@@ -9457,7 +9655,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="12.75" customHeight="1">
+    <row r="182" spans="1:7" ht="12" customHeight="1">
       <c r="A182" s="3" t="s">
         <v>1086</v>
       </c>
@@ -9468,7 +9666,7 @@
         <v>1088</v>
       </c>
       <c r="D182" s="2">
-        <v>1253</v>
+        <v>9437</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>1089</v>
@@ -9480,7 +9678,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="12.75" customHeight="1">
+    <row r="183" spans="1:7" ht="12" customHeight="1">
       <c r="A183" s="3" t="s">
         <v>1092</v>
       </c>
@@ -9491,7 +9689,7 @@
         <v>1094</v>
       </c>
       <c r="D183" s="2">
-        <v>6864000</v>
+        <v>153</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>1095</v>
@@ -9503,7 +9701,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="12.75" customHeight="1">
+    <row r="184" spans="1:7" ht="12" customHeight="1">
       <c r="A184" s="3" t="s">
         <v>1098</v>
       </c>
@@ -9514,7 +9712,7 @@
         <v>1100</v>
       </c>
       <c r="D184" s="2">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>1101</v>
@@ -9526,7 +9724,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="12.75" customHeight="1">
+    <row r="185" spans="1:7" ht="12" customHeight="1">
       <c r="A185" s="3" t="s">
         <v>1104</v>
       </c>
@@ -9537,7 +9735,7 @@
         <v>1106</v>
       </c>
       <c r="D185" s="2">
-        <v>91</v>
+        <v>24710</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>1107</v>
@@ -9549,7 +9747,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="12.75" customHeight="1">
+    <row r="186" spans="1:7" ht="12" customHeight="1">
       <c r="A186" s="3" t="s">
         <v>1110</v>
       </c>
@@ -9560,7 +9758,7 @@
         <v>1112</v>
       </c>
       <c r="D186" s="2">
-        <v>387235</v>
+        <v>11228</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>1113</v>
@@ -9572,7 +9770,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="12.75" customHeight="1">
+    <row r="187" spans="1:7" ht="12" customHeight="1">
       <c r="A187" s="3" t="s">
         <v>1116</v>
       </c>
@@ -9583,7 +9781,7 @@
         <v>1118</v>
       </c>
       <c r="D187" s="2">
-        <v>387081</v>
+        <v>9000</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>1119</v>
@@ -9595,7 +9793,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="12.75" customHeight="1">
+    <row r="188" spans="1:7" ht="12" customHeight="1">
       <c r="A188" s="3" t="s">
         <v>1122</v>
       </c>
@@ -9606,7 +9804,7 @@
         <v>1124</v>
       </c>
       <c r="D188" s="2">
-        <v>20</v>
+        <v>18000</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>1125</v>
@@ -9618,7 +9816,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="12.75" customHeight="1">
+    <row r="189" spans="1:7" ht="12" customHeight="1">
       <c r="A189" s="3" t="s">
         <v>1128</v>
       </c>
@@ -9629,7 +9827,7 @@
         <v>1130</v>
       </c>
       <c r="D189" s="2">
-        <v>20</v>
+        <v>16000</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>1131</v>
@@ -9641,7 +9839,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="12.75" customHeight="1">
+    <row r="190" spans="1:7" ht="12" customHeight="1">
       <c r="A190" s="3" t="s">
         <v>1134</v>
       </c>
@@ -9652,7 +9850,7 @@
         <v>1136</v>
       </c>
       <c r="D190" s="2">
-        <v>13398</v>
+        <v>315940</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>1137</v>
@@ -9664,7 +9862,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="12.75" customHeight="1">
+    <row r="191" spans="1:7" ht="12" customHeight="1">
       <c r="A191" s="3" t="s">
         <v>1140</v>
       </c>
@@ -9675,7 +9873,7 @@
         <v>1142</v>
       </c>
       <c r="D191" s="2">
-        <v>7831675</v>
+        <v>91892</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>1143</v>
@@ -9687,7 +9885,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="12.75" customHeight="1">
+    <row r="192" spans="1:7" ht="12" customHeight="1">
       <c r="A192" s="3" t="s">
         <v>1146</v>
       </c>
@@ -9698,7 +9896,7 @@
         <v>1148</v>
       </c>
       <c r="D192" s="2">
-        <v>7830200</v>
+        <v>278</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>1149</v>
@@ -9710,7 +9908,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="12.75" customHeight="1">
+    <row r="193" spans="1:7" ht="12" customHeight="1">
       <c r="A193" s="3" t="s">
         <v>1152</v>
       </c>
@@ -9721,7 +9919,7 @@
         <v>1154</v>
       </c>
       <c r="D193" s="2">
-        <v>368</v>
+        <v>496</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>1155</v>
@@ -9733,7 +9931,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="12.75" customHeight="1">
+    <row r="194" spans="1:7" ht="12" customHeight="1">
       <c r="A194" s="3" t="s">
         <v>1158</v>
       </c>
@@ -9744,7 +9942,7 @@
         <v>1160</v>
       </c>
       <c r="D194" s="2">
-        <v>103</v>
+        <v>1253</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>1161</v>
@@ -9756,7 +9954,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="12.75" customHeight="1">
+    <row r="195" spans="1:7" ht="12" customHeight="1">
       <c r="A195" s="3" t="s">
         <v>1164</v>
       </c>
@@ -9767,7 +9965,7 @@
         <v>1166</v>
       </c>
       <c r="D195" s="2">
-        <v>114</v>
+        <v>6864000</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>1167</v>
@@ -9779,7 +9977,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="12.75" customHeight="1">
+    <row r="196" spans="1:7" ht="12" customHeight="1">
       <c r="A196" s="3" t="s">
         <v>1170</v>
       </c>
@@ -9790,7 +9988,7 @@
         <v>1172</v>
       </c>
       <c r="D196" s="2">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>1173</v>
@@ -9802,7 +10000,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="12.75" customHeight="1">
+    <row r="197" spans="1:7" ht="12" customHeight="1">
       <c r="A197" s="3" t="s">
         <v>1176</v>
       </c>
@@ -9813,7 +10011,7 @@
         <v>1178</v>
       </c>
       <c r="D197" s="2">
-        <v>500</v>
+        <v>91</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>1179</v>
@@ -9825,7 +10023,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="12.75" customHeight="1">
+    <row r="198" spans="1:7" ht="12" customHeight="1">
       <c r="A198" s="3" t="s">
         <v>1182</v>
       </c>
@@ -9836,7 +10034,7 @@
         <v>1184</v>
       </c>
       <c r="D198" s="2">
-        <v>44355</v>
+        <v>387235</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>1185</v>
@@ -9848,7 +10046,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="12.75" customHeight="1">
+    <row r="199" spans="1:7" ht="12" customHeight="1">
       <c r="A199" s="3" t="s">
         <v>1188</v>
       </c>
@@ -9859,7 +10057,7 @@
         <v>1190</v>
       </c>
       <c r="D199" s="2">
-        <v>751</v>
+        <v>387081</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>1191</v>
@@ -9871,7 +10069,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="12.75" customHeight="1">
+    <row r="200" spans="1:7" ht="12" customHeight="1">
       <c r="A200" s="3" t="s">
         <v>1194</v>
       </c>
@@ -9882,7 +10080,7 @@
         <v>1196</v>
       </c>
       <c r="D200" s="2">
-        <v>3488</v>
+        <v>20</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>1197</v>
@@ -9894,7 +10092,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="12.75" customHeight="1">
+    <row r="201" spans="1:7" ht="12" customHeight="1">
       <c r="A201" s="3" t="s">
         <v>1200</v>
       </c>
@@ -9905,7 +10103,7 @@
         <v>1202</v>
       </c>
       <c r="D201" s="2">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>1203</v>
@@ -9917,7 +10115,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="12.75" customHeight="1">
+    <row r="202" spans="1:7" ht="12" customHeight="1">
       <c r="A202" s="3" t="s">
         <v>1206</v>
       </c>
@@ -9928,7 +10126,7 @@
         <v>1208</v>
       </c>
       <c r="D202" s="2">
-        <v>26</v>
+        <v>13398</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>1209</v>
@@ -9940,7 +10138,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="12.75" customHeight="1">
+    <row r="203" spans="1:7" ht="12" customHeight="1">
       <c r="A203" s="3" t="s">
         <v>1212</v>
       </c>
@@ -9951,7 +10149,7 @@
         <v>1214</v>
       </c>
       <c r="D203" s="2">
-        <v>6</v>
+        <v>7831675</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>1215</v>
@@ -9963,7 +10161,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="12.75" customHeight="1">
+    <row r="204" spans="1:7" ht="12" customHeight="1">
       <c r="A204" s="3" t="s">
         <v>1218</v>
       </c>
@@ -9974,7 +10172,7 @@
         <v>1220</v>
       </c>
       <c r="D204" s="2">
-        <v>1166</v>
+        <v>7830200</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>1221</v>
@@ -9986,7 +10184,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="12.75" customHeight="1">
+    <row r="205" spans="1:7" ht="12" customHeight="1">
       <c r="A205" s="3" t="s">
         <v>1224</v>
       </c>
@@ -9997,7 +10195,7 @@
         <v>1226</v>
       </c>
       <c r="D205" s="2">
-        <v>1340</v>
+        <v>368</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>1227</v>
@@ -10009,7 +10207,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="12.75" customHeight="1">
+    <row r="206" spans="1:7" ht="12" customHeight="1">
       <c r="A206" s="3" t="s">
         <v>1230</v>
       </c>
@@ -10020,7 +10218,7 @@
         <v>1232</v>
       </c>
       <c r="D206" s="2">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>1233</v>
@@ -10032,7 +10230,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="12.75" customHeight="1">
+    <row r="207" spans="1:7" ht="12" customHeight="1">
       <c r="A207" s="3" t="s">
         <v>1236</v>
       </c>
@@ -10043,7 +10241,7 @@
         <v>1238</v>
       </c>
       <c r="D207" s="2">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>1239</v>
@@ -10055,7 +10253,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="12.75" customHeight="1">
+    <row r="208" spans="1:7" ht="12" customHeight="1">
       <c r="A208" s="3" t="s">
         <v>1242</v>
       </c>
@@ -10066,7 +10264,7 @@
         <v>1244</v>
       </c>
       <c r="D208" s="2">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>1245</v>
@@ -10078,7 +10276,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="12.75" customHeight="1">
+    <row r="209" spans="1:7" ht="12" customHeight="1">
       <c r="A209" s="3" t="s">
         <v>1248</v>
       </c>
@@ -10089,7 +10287,7 @@
         <v>1250</v>
       </c>
       <c r="D209" s="2">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>1251</v>
@@ -10101,7 +10299,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="12.75" customHeight="1">
+    <row r="210" spans="1:7" ht="12" customHeight="1">
       <c r="A210" s="3" t="s">
         <v>1254</v>
       </c>
@@ -10112,7 +10310,7 @@
         <v>1256</v>
       </c>
       <c r="D210" s="2">
-        <v>670</v>
+        <v>44355</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>1257</v>
@@ -10124,7 +10322,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="12.75" customHeight="1">
+    <row r="211" spans="1:7" ht="12" customHeight="1">
       <c r="A211" s="3" t="s">
         <v>1260</v>
       </c>
@@ -10135,7 +10333,7 @@
         <v>1262</v>
       </c>
       <c r="D211" s="2">
-        <v>1</v>
+        <v>751</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>1263</v>
@@ -10147,7 +10345,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="12.75" customHeight="1">
+    <row r="212" spans="1:7" ht="12" customHeight="1">
       <c r="A212" s="3" t="s">
         <v>1266</v>
       </c>
@@ -10158,7 +10356,7 @@
         <v>1268</v>
       </c>
       <c r="D212" s="2">
-        <v>50</v>
+        <v>3488</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>1269</v>
@@ -10170,7 +10368,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="12.75" customHeight="1">
+    <row r="213" spans="1:7" ht="12" customHeight="1">
       <c r="A213" s="3" t="s">
         <v>1272</v>
       </c>
@@ -10181,7 +10379,7 @@
         <v>1274</v>
       </c>
       <c r="D213" s="2">
-        <v>1400</v>
+        <v>26</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>1275</v>
@@ -10193,7 +10391,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="12.75" customHeight="1">
+    <row r="214" spans="1:7" ht="12" customHeight="1">
       <c r="A214" s="3" t="s">
         <v>1278</v>
       </c>
@@ -10204,7 +10402,7 @@
         <v>1280</v>
       </c>
       <c r="D214" s="2">
-        <v>1400</v>
+        <v>26</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>1281</v>
@@ -10216,7 +10414,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="12.75" customHeight="1">
+    <row r="215" spans="1:7" ht="12" customHeight="1">
       <c r="A215" s="3" t="s">
         <v>1284</v>
       </c>
@@ -10227,7 +10425,7 @@
         <v>1286</v>
       </c>
       <c r="D215" s="2">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>1287</v>
@@ -10239,7 +10437,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="12.75" customHeight="1">
+    <row r="216" spans="1:7" ht="12" customHeight="1">
       <c r="A216" s="3" t="s">
         <v>1290</v>
       </c>
@@ -10250,7 +10448,7 @@
         <v>1292</v>
       </c>
       <c r="D216" s="2">
-        <v>62</v>
+        <v>1166</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>1293</v>
@@ -10262,7 +10460,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="12.75" customHeight="1">
+    <row r="217" spans="1:7" ht="12" customHeight="1">
       <c r="A217" s="3" t="s">
         <v>1296</v>
       </c>
@@ -10273,7 +10471,7 @@
         <v>1298</v>
       </c>
       <c r="D217" s="2">
-        <v>2000</v>
+        <v>75</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>1299</v>
@@ -10285,7 +10483,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="12.75" customHeight="1">
+    <row r="218" spans="1:7" ht="12" customHeight="1">
       <c r="A218" s="3" t="s">
         <v>1302</v>
       </c>
@@ -10296,7 +10494,7 @@
         <v>1304</v>
       </c>
       <c r="D218" s="2">
-        <v>2000</v>
+        <v>199</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>1305</v>
@@ -10308,7 +10506,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="12.75" customHeight="1">
+    <row r="219" spans="1:7" ht="12" customHeight="1">
       <c r="A219" s="3" t="s">
         <v>1308</v>
       </c>
@@ -10319,7 +10517,7 @@
         <v>1310</v>
       </c>
       <c r="D219" s="2">
-        <v>228</v>
+        <v>1</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>1311</v>
@@ -10331,7 +10529,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="12.75" customHeight="1">
+    <row r="220" spans="1:7" ht="12" customHeight="1">
       <c r="A220" s="3" t="s">
         <v>1314</v>
       </c>
@@ -10342,7 +10540,7 @@
         <v>1316</v>
       </c>
       <c r="D220" s="2">
-        <v>79240</v>
+        <v>2</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>1317</v>
@@ -10354,7 +10552,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="12.75" customHeight="1">
+    <row r="221" spans="1:7" ht="12" customHeight="1">
       <c r="A221" s="3" t="s">
         <v>1320</v>
       </c>
@@ -10365,7 +10563,7 @@
         <v>1322</v>
       </c>
       <c r="D221" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>1323</v>
@@ -10377,7 +10575,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="12.75" customHeight="1">
+    <row r="222" spans="1:7" ht="12" customHeight="1">
       <c r="A222" s="3" t="s">
         <v>1326</v>
       </c>
@@ -10388,7 +10586,7 @@
         <v>1328</v>
       </c>
       <c r="D222" s="2">
-        <v>13400</v>
+        <v>670</v>
       </c>
       <c r="E222" s="3" t="s">
         <v>1329</v>
@@ -10400,7 +10598,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="12.75" customHeight="1">
+    <row r="223" spans="1:7" ht="12" customHeight="1">
       <c r="A223" s="3" t="s">
         <v>1332</v>
       </c>
@@ -10411,7 +10609,7 @@
         <v>1334</v>
       </c>
       <c r="D223" s="2">
-        <v>6901</v>
+        <v>1</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>1335</v>
@@ -10423,7 +10621,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="12.75" customHeight="1">
+    <row r="224" spans="1:7" ht="12" customHeight="1">
       <c r="A224" s="3" t="s">
         <v>1338</v>
       </c>
@@ -10434,7 +10632,7 @@
         <v>1340</v>
       </c>
       <c r="D224" s="2">
-        <v>3400</v>
+        <v>50</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>1341</v>
@@ -10446,7 +10644,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="12.75" customHeight="1">
+    <row r="225" spans="1:7" ht="12" customHeight="1">
       <c r="A225" s="3" t="s">
         <v>1344</v>
       </c>
@@ -10457,7 +10655,7 @@
         <v>1346</v>
       </c>
       <c r="D225" s="2">
-        <v>2497</v>
+        <v>1400</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>1347</v>
@@ -10469,7 +10667,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="12.75" customHeight="1">
+    <row r="226" spans="1:7" ht="12" customHeight="1">
       <c r="A226" s="3" t="s">
         <v>1350</v>
       </c>
@@ -10480,7 +10678,7 @@
         <v>1352</v>
       </c>
       <c r="D226" s="2">
-        <v>40</v>
+        <v>1400</v>
       </c>
       <c r="E226" s="3" t="s">
         <v>1353</v>
@@ -10492,7 +10690,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="12.75" customHeight="1">
+    <row r="227" spans="1:7" ht="12" customHeight="1">
       <c r="A227" s="3" t="s">
         <v>1356</v>
       </c>
@@ -10503,7 +10701,7 @@
         <v>1358</v>
       </c>
       <c r="D227" s="2">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>1359</v>
@@ -10515,7 +10713,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="12.75" customHeight="1">
+    <row r="228" spans="1:7" ht="12" customHeight="1">
       <c r="A228" s="3" t="s">
         <v>1362</v>
       </c>
@@ -10526,7 +10724,7 @@
         <v>1364</v>
       </c>
       <c r="D228" s="2">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>1365</v>
@@ -10538,7 +10736,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="12.75" customHeight="1">
+    <row r="229" spans="1:7" ht="12" customHeight="1">
       <c r="A229" s="3" t="s">
         <v>1368</v>
       </c>
@@ -10549,7 +10747,7 @@
         <v>1370</v>
       </c>
       <c r="D229" s="2">
-        <v>50</v>
+        <v>1950</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>1371</v>
@@ -10561,7 +10759,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="12.75" customHeight="1">
+    <row r="230" spans="1:7" ht="12" customHeight="1">
       <c r="A230" s="3" t="s">
         <v>1374</v>
       </c>
@@ -10572,7 +10770,7 @@
         <v>1376</v>
       </c>
       <c r="D230" s="2">
-        <v>800</v>
+        <v>1934</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>1377</v>
@@ -10584,7 +10782,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="12.75" customHeight="1">
+    <row r="231" spans="1:7" ht="12" customHeight="1">
       <c r="A231" s="3" t="s">
         <v>1380</v>
       </c>
@@ -10595,7 +10793,7 @@
         <v>1382</v>
       </c>
       <c r="D231" s="2">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>1383</v>
@@ -10607,7 +10805,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="12.75" customHeight="1">
+    <row r="232" spans="1:7" ht="12" customHeight="1">
       <c r="A232" s="3" t="s">
         <v>1386</v>
       </c>
@@ -10618,7 +10816,7 @@
         <v>1388</v>
       </c>
       <c r="D232" s="2">
-        <v>100</v>
+        <v>79240</v>
       </c>
       <c r="E232" s="3" t="s">
         <v>1389</v>
@@ -10630,7 +10828,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="12.75" customHeight="1">
+    <row r="233" spans="1:7" ht="12" customHeight="1">
       <c r="A233" s="3" t="s">
         <v>1392</v>
       </c>
@@ -10641,7 +10839,7 @@
         <v>1394</v>
       </c>
       <c r="D233" s="2">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E233" s="3" t="s">
         <v>1395</v>
@@ -10653,7 +10851,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="12.75" customHeight="1">
+    <row r="234" spans="1:7" ht="12" customHeight="1">
       <c r="A234" s="3" t="s">
         <v>1398</v>
       </c>
@@ -10664,7 +10862,7 @@
         <v>1400</v>
       </c>
       <c r="D234" s="2">
-        <v>65</v>
+        <v>13400</v>
       </c>
       <c r="E234" s="3" t="s">
         <v>1401</v>
@@ -10676,7 +10874,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="12.75" customHeight="1">
+    <row r="235" spans="1:7" ht="12" customHeight="1">
       <c r="A235" s="3" t="s">
         <v>1404</v>
       </c>
@@ -10687,7 +10885,7 @@
         <v>1406</v>
       </c>
       <c r="D235" s="2">
-        <v>2400000</v>
+        <v>6901</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>1407</v>
@@ -10699,7 +10897,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="12.75" customHeight="1">
+    <row r="236" spans="1:7" ht="12" customHeight="1">
       <c r="A236" s="3" t="s">
         <v>1410</v>
       </c>
@@ -10710,7 +10908,7 @@
         <v>1412</v>
       </c>
       <c r="D236" s="2">
-        <v>14000</v>
+        <v>16400</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>1413</v>
@@ -10722,7 +10920,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="12.75" customHeight="1">
+    <row r="237" spans="1:7" ht="12" customHeight="1">
       <c r="A237" s="3" t="s">
         <v>1416</v>
       </c>
@@ -10733,7 +10931,7 @@
         <v>1418</v>
       </c>
       <c r="D237" s="2">
-        <v>2</v>
+        <v>2497</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>1419</v>
@@ -10745,7 +10943,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="12.75" customHeight="1">
+    <row r="238" spans="1:7" ht="12" customHeight="1">
       <c r="A238" s="3" t="s">
         <v>1422</v>
       </c>
@@ -10756,7 +10954,7 @@
         <v>1424</v>
       </c>
       <c r="D238" s="2">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E238" s="3" t="s">
         <v>1425</v>
@@ -10768,7 +10966,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="12.75" customHeight="1">
+    <row r="239" spans="1:7" ht="12" customHeight="1">
       <c r="A239" s="3" t="s">
         <v>1428</v>
       </c>
@@ -10779,7 +10977,7 @@
         <v>1430</v>
       </c>
       <c r="D239" s="2">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>1431</v>
@@ -10791,7 +10989,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="12.75" customHeight="1">
+    <row r="240" spans="1:7" ht="12" customHeight="1">
       <c r="A240" s="3" t="s">
         <v>1434</v>
       </c>
@@ -10802,7 +11000,7 @@
         <v>1436</v>
       </c>
       <c r="D240" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>1437</v>
@@ -10814,7 +11012,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="12.75" customHeight="1">
+    <row r="241" spans="1:7" ht="12" customHeight="1">
       <c r="A241" s="3" t="s">
         <v>1440</v>
       </c>
@@ -10825,7 +11023,7 @@
         <v>1442</v>
       </c>
       <c r="D241" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>1443</v>
@@ -10837,7 +11035,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="12.75" customHeight="1">
+    <row r="242" spans="1:7" ht="12" customHeight="1">
       <c r="A242" s="3" t="s">
         <v>1446</v>
       </c>
@@ -10848,7 +11046,7 @@
         <v>1448</v>
       </c>
       <c r="D242" s="2">
-        <v>2</v>
+        <v>800</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>1449</v>
@@ -10860,7 +11058,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="12.75" customHeight="1">
+    <row r="243" spans="1:7" ht="12" customHeight="1">
       <c r="A243" s="3" t="s">
         <v>1452</v>
       </c>
@@ -10871,7 +11069,7 @@
         <v>1454</v>
       </c>
       <c r="D243" s="2">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>1455</v>
@@ -10883,7 +11081,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="12.75" customHeight="1">
+    <row r="244" spans="1:7" ht="12" customHeight="1">
       <c r="A244" s="3" t="s">
         <v>1458</v>
       </c>
@@ -10894,7 +11092,7 @@
         <v>1460</v>
       </c>
       <c r="D244" s="2">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>1461</v>
@@ -10906,7 +11104,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="12.75" customHeight="1">
+    <row r="245" spans="1:7" ht="12" customHeight="1">
       <c r="A245" s="3" t="s">
         <v>1464</v>
       </c>
@@ -10917,7 +11115,7 @@
         <v>1466</v>
       </c>
       <c r="D245" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E245" s="3" t="s">
         <v>1467</v>
@@ -10929,7 +11127,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="12.75" customHeight="1">
+    <row r="246" spans="1:7" ht="12" customHeight="1">
       <c r="A246" s="3" t="s">
         <v>1470</v>
       </c>
@@ -10940,7 +11138,7 @@
         <v>1472</v>
       </c>
       <c r="D246" s="2">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="E246" s="3" t="s">
         <v>1473</v>
@@ -10952,7 +11150,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="12.75" customHeight="1">
+    <row r="247" spans="1:7" ht="12" customHeight="1">
       <c r="A247" s="3" t="s">
         <v>1476</v>
       </c>
@@ -10963,7 +11161,7 @@
         <v>1478</v>
       </c>
       <c r="D247" s="2">
-        <v>2</v>
+        <v>2400000</v>
       </c>
       <c r="E247" s="3" t="s">
         <v>1479</v>
@@ -10975,7 +11173,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="12.75" customHeight="1">
+    <row r="248" spans="1:7" ht="12" customHeight="1">
       <c r="A248" s="3" t="s">
         <v>1482</v>
       </c>
@@ -10986,7 +11184,7 @@
         <v>1484</v>
       </c>
       <c r="D248" s="2">
-        <v>1</v>
+        <v>12000</v>
       </c>
       <c r="E248" s="3" t="s">
         <v>1485</v>
@@ -10998,7 +11196,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="12.75" customHeight="1">
+    <row r="249" spans="1:7" ht="12" customHeight="1">
       <c r="A249" s="3" t="s">
         <v>1488</v>
       </c>
@@ -11009,7 +11207,7 @@
         <v>1490</v>
       </c>
       <c r="D249" s="2">
-        <v>26571751</v>
+        <v>14000</v>
       </c>
       <c r="E249" s="3" t="s">
         <v>1491</v>
@@ -11021,7 +11219,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="12.75" customHeight="1">
+    <row r="250" spans="1:7" ht="12" customHeight="1">
       <c r="A250" s="3" t="s">
         <v>1494</v>
       </c>
@@ -11032,7 +11230,7 @@
         <v>1496</v>
       </c>
       <c r="D250" s="2">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="E250" s="3" t="s">
         <v>1497</v>
@@ -11044,7 +11242,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="12.75" customHeight="1">
+    <row r="251" spans="1:7" ht="12" customHeight="1">
       <c r="A251" s="3" t="s">
         <v>1500</v>
       </c>
@@ -11055,7 +11253,7 @@
         <v>1502</v>
       </c>
       <c r="D251" s="2">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="E251" s="3" t="s">
         <v>1503</v>
@@ -11067,7 +11265,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="12.75" customHeight="1">
+    <row r="252" spans="1:7" ht="12" customHeight="1">
       <c r="A252" s="3" t="s">
         <v>1506</v>
       </c>
@@ -11078,7 +11276,7 @@
         <v>1508</v>
       </c>
       <c r="D252" s="2">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E252" s="3" t="s">
         <v>1509</v>
@@ -11090,7 +11288,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="12.75" customHeight="1">
+    <row r="253" spans="1:7" ht="12" customHeight="1">
       <c r="A253" s="3" t="s">
         <v>1512</v>
       </c>
@@ -11101,7 +11299,7 @@
         <v>1514</v>
       </c>
       <c r="D253" s="2">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>1515</v>
@@ -11113,7 +11311,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="12.75" customHeight="1">
+    <row r="254" spans="1:7" ht="12" customHeight="1">
       <c r="A254" s="3" t="s">
         <v>1518</v>
       </c>
@@ -11124,7 +11322,7 @@
         <v>1520</v>
       </c>
       <c r="D254" s="2">
-        <v>216</v>
+        <v>1</v>
       </c>
       <c r="E254" s="3" t="s">
         <v>1521</v>
@@ -11136,7 +11334,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="12.75" customHeight="1">
+    <row r="255" spans="1:7" ht="12" customHeight="1">
       <c r="A255" s="3" t="s">
         <v>1524</v>
       </c>
@@ -11147,7 +11345,7 @@
         <v>1526</v>
       </c>
       <c r="D255" s="2">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="E255" s="3" t="s">
         <v>1527</v>
@@ -11159,7 +11357,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="12.75" customHeight="1">
+    <row r="256" spans="1:7" ht="12" customHeight="1">
       <c r="A256" s="3" t="s">
         <v>1530</v>
       </c>
@@ -11170,7 +11368,7 @@
         <v>1532</v>
       </c>
       <c r="D256" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E256" s="3" t="s">
         <v>1533</v>
@@ -11182,7 +11380,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="12.75" customHeight="1">
+    <row r="257" spans="1:7" ht="12" customHeight="1">
       <c r="A257" s="3" t="s">
         <v>1536</v>
       </c>
@@ -11193,7 +11391,7 @@
         <v>1538</v>
       </c>
       <c r="D257" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E257" s="3" t="s">
         <v>1539</v>
@@ -11205,7 +11403,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="12.75" customHeight="1">
+    <row r="258" spans="1:7" ht="12" customHeight="1">
       <c r="A258" s="3" t="s">
         <v>1542</v>
       </c>
@@ -11216,7 +11414,7 @@
         <v>1544</v>
       </c>
       <c r="D258" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>1545</v>
@@ -11228,7 +11426,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="12.75" customHeight="1">
+    <row r="259" spans="1:7" ht="12" customHeight="1">
       <c r="A259" s="3" t="s">
         <v>1548</v>
       </c>
@@ -11239,7 +11437,7 @@
         <v>1550</v>
       </c>
       <c r="D259" s="2">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>1551</v>
@@ -11251,7 +11449,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="12.75" customHeight="1">
+    <row r="260" spans="1:7" ht="12" customHeight="1">
       <c r="A260" s="3" t="s">
         <v>1554</v>
       </c>
@@ -11262,7 +11460,7 @@
         <v>1556</v>
       </c>
       <c r="D260" s="2">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E260" s="3" t="s">
         <v>1557</v>
@@ -11274,7 +11472,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="12.75" customHeight="1">
+    <row r="261" spans="1:7" ht="12" customHeight="1">
       <c r="A261" s="3" t="s">
         <v>1560</v>
       </c>
@@ -11285,7 +11483,7 @@
         <v>1562</v>
       </c>
       <c r="D261" s="2">
-        <v>10</v>
+        <v>26632782</v>
       </c>
       <c r="E261" s="3" t="s">
         <v>1563</v>
@@ -11297,7 +11495,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="12.75" customHeight="1">
+    <row r="262" spans="1:7" ht="12" customHeight="1">
       <c r="A262" s="3" t="s">
         <v>1566</v>
       </c>
@@ -11308,7 +11506,7 @@
         <v>1568</v>
       </c>
       <c r="D262" s="2">
-        <v>339</v>
+        <v>72</v>
       </c>
       <c r="E262" s="3" t="s">
         <v>1569</v>
@@ -11320,7 +11518,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="12.75" customHeight="1">
+    <row r="263" spans="1:7" ht="12" customHeight="1">
       <c r="A263" s="3" t="s">
         <v>1572</v>
       </c>
@@ -11331,7 +11529,7 @@
         <v>1574</v>
       </c>
       <c r="D263" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E263" s="3" t="s">
         <v>1575</v>
@@ -11343,7 +11541,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="12.75" customHeight="1">
+    <row r="264" spans="1:7" ht="12" customHeight="1">
       <c r="A264" s="3" t="s">
         <v>1578</v>
       </c>
@@ -11354,7 +11552,7 @@
         <v>1580</v>
       </c>
       <c r="D264" s="2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E264" s="3" t="s">
         <v>1581</v>
@@ -11366,7 +11564,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="12.75" customHeight="1">
+    <row r="265" spans="1:7" ht="12" customHeight="1">
       <c r="A265" s="3" t="s">
         <v>1584</v>
       </c>
@@ -11377,7 +11575,7 @@
         <v>1586</v>
       </c>
       <c r="D265" s="2">
-        <v>480</v>
+        <v>46</v>
       </c>
       <c r="E265" s="3" t="s">
         <v>1587</v>
@@ -11389,7 +11587,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="12.75" customHeight="1">
+    <row r="266" spans="1:7" ht="12" customHeight="1">
       <c r="A266" s="3" t="s">
         <v>1590</v>
       </c>
@@ -11400,7 +11598,7 @@
         <v>1592</v>
       </c>
       <c r="D266" s="2">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>1593</v>
@@ -11412,7 +11610,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="12.75" customHeight="1">
+    <row r="267" spans="1:7" ht="12" customHeight="1">
       <c r="A267" s="3" t="s">
         <v>1596</v>
       </c>
@@ -11423,7 +11621,7 @@
         <v>1598</v>
       </c>
       <c r="D267" s="2">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="E267" s="3" t="s">
         <v>1599</v>
@@ -11435,7 +11633,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="12.75" customHeight="1">
+    <row r="268" spans="1:7" ht="12" customHeight="1">
       <c r="A268" s="3" t="s">
         <v>1602</v>
       </c>
@@ -11446,7 +11644,7 @@
         <v>1604</v>
       </c>
       <c r="D268" s="2">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E268" s="3" t="s">
         <v>1605</v>
@@ -11458,7 +11656,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="12.75" customHeight="1">
+    <row r="269" spans="1:7" ht="12" customHeight="1">
       <c r="A269" s="3" t="s">
         <v>1608</v>
       </c>
@@ -11469,7 +11667,7 @@
         <v>1610</v>
       </c>
       <c r="D269" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E269" s="3" t="s">
         <v>1611</v>
@@ -11481,7 +11679,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="12.75" customHeight="1">
+    <row r="270" spans="1:7" ht="12" customHeight="1">
       <c r="A270" s="3" t="s">
         <v>1614</v>
       </c>
@@ -11492,7 +11690,7 @@
         <v>1616</v>
       </c>
       <c r="D270" s="2">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E270" s="3" t="s">
         <v>1617</v>
@@ -11504,7 +11702,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="12.75" customHeight="1">
+    <row r="271" spans="1:7" ht="12" customHeight="1">
       <c r="A271" s="3" t="s">
         <v>1620</v>
       </c>
@@ -11515,7 +11713,7 @@
         <v>1622</v>
       </c>
       <c r="D271" s="2">
-        <v>1367</v>
+        <v>34</v>
       </c>
       <c r="E271" s="3" t="s">
         <v>1623</v>
@@ -11527,7 +11725,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="12.75" customHeight="1">
+    <row r="272" spans="1:7" ht="12" customHeight="1">
       <c r="A272" s="3" t="s">
         <v>1626</v>
       </c>
@@ -11538,7 +11736,7 @@
         <v>1628</v>
       </c>
       <c r="D272" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E272" s="3" t="s">
         <v>1629</v>
@@ -11550,7 +11748,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="12.75" customHeight="1">
+    <row r="273" spans="1:7" ht="12" customHeight="1">
       <c r="A273" s="3" t="s">
         <v>1632</v>
       </c>
@@ -11561,7 +11759,7 @@
         <v>1634</v>
       </c>
       <c r="D273" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E273" s="3" t="s">
         <v>1635</v>
@@ -11573,7 +11771,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="12.75" customHeight="1">
+    <row r="274" spans="1:7" ht="12" customHeight="1">
       <c r="A274" s="3" t="s">
         <v>1638</v>
       </c>
@@ -11596,7 +11794,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="12.75" customHeight="1">
+    <row r="275" spans="1:7" ht="12" customHeight="1">
       <c r="A275" s="3" t="s">
         <v>1644</v>
       </c>
@@ -11607,7 +11805,7 @@
         <v>1646</v>
       </c>
       <c r="D275" s="2">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="E275" s="3" t="s">
         <v>1647</v>
@@ -11619,7 +11817,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="12.75" customHeight="1">
+    <row r="276" spans="1:7" ht="12" customHeight="1">
       <c r="A276" s="3" t="s">
         <v>1650</v>
       </c>
@@ -11630,7 +11828,7 @@
         <v>1652</v>
       </c>
       <c r="D276" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E276" s="3" t="s">
         <v>1653</v>
@@ -11642,7 +11840,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="12.75" customHeight="1">
+    <row r="277" spans="1:7" ht="12" customHeight="1">
       <c r="A277" s="3" t="s">
         <v>1656</v>
       </c>
@@ -11653,7 +11851,7 @@
         <v>1658</v>
       </c>
       <c r="D277" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E277" s="3" t="s">
         <v>1659</v>
@@ -11665,7 +11863,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="12.75" customHeight="1">
+    <row r="278" spans="1:7" ht="12" customHeight="1">
       <c r="A278" s="3" t="s">
         <v>1662</v>
       </c>
@@ -11676,7 +11874,7 @@
         <v>1664</v>
       </c>
       <c r="D278" s="2">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="E278" s="3" t="s">
         <v>1665</v>
@@ -11688,7 +11886,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="12.75" customHeight="1">
+    <row r="279" spans="1:7" ht="12" customHeight="1">
       <c r="A279" s="3" t="s">
         <v>1668</v>
       </c>
@@ -11699,7 +11897,7 @@
         <v>1670</v>
       </c>
       <c r="D279" s="2">
-        <v>26573342</v>
+        <v>66</v>
       </c>
       <c r="E279" s="3" t="s">
         <v>1671</v>
@@ -11711,7 +11909,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="12.75" customHeight="1">
+    <row r="280" spans="1:7" ht="12" customHeight="1">
       <c r="A280" s="3" t="s">
         <v>1674</v>
       </c>
@@ -11722,7 +11920,7 @@
         <v>1676</v>
       </c>
       <c r="D280" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E280" s="3" t="s">
         <v>1677</v>
@@ -11734,7 +11932,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="12.75" customHeight="1">
+    <row r="281" spans="1:7" ht="12" customHeight="1">
       <c r="A281" s="3" t="s">
         <v>1680</v>
       </c>
@@ -11745,7 +11943,7 @@
         <v>1682</v>
       </c>
       <c r="D281" s="2">
-        <v>1367</v>
+        <v>35</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>1683</v>
@@ -11757,7 +11955,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="12.75" customHeight="1">
+    <row r="282" spans="1:7" ht="12" customHeight="1">
       <c r="A282" s="3" t="s">
         <v>1686</v>
       </c>
@@ -11768,7 +11966,7 @@
         <v>1688</v>
       </c>
       <c r="D282" s="2">
-        <v>216</v>
+        <v>584</v>
       </c>
       <c r="E282" s="3" t="s">
         <v>1689</v>
@@ -11780,7 +11978,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="12.75" customHeight="1">
+    <row r="283" spans="1:7" ht="12" customHeight="1">
       <c r="A283" s="3" t="s">
         <v>1692</v>
       </c>
@@ -11791,7 +11989,7 @@
         <v>1694</v>
       </c>
       <c r="D283" s="2">
-        <v>26571751</v>
+        <v>1</v>
       </c>
       <c r="E283" s="3" t="s">
         <v>1695</v>
@@ -11801,6 +11999,259 @@
       </c>
       <c r="G283" s="3" t="s">
         <v>1697</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="12" customHeight="1">
+      <c r="A284" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D284" s="2">
+        <v>0</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="12" customHeight="1">
+      <c r="A285" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D285" s="2">
+        <v>0</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="12" customHeight="1">
+      <c r="A286" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D286" s="2">
+        <v>2</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="12" customHeight="1">
+      <c r="A287" s="3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D287" s="2">
+        <v>2</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="G287" s="3" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="12" customHeight="1">
+      <c r="A288" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D288" s="2">
+        <v>3</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="12" customHeight="1">
+      <c r="A289" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D289" s="2">
+        <v>8</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="12" customHeight="1">
+      <c r="A290" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D290" s="2">
+        <v>26633590</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="12" customHeight="1">
+      <c r="A291" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D291" s="2">
+        <v>8</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="G291" s="3" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="12" customHeight="1">
+      <c r="A292" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D292" s="2">
+        <v>584</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G292" s="3" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="12" customHeight="1">
+      <c r="A293" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D293" s="2">
+        <v>216</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>1756</v>
+      </c>
+      <c r="G293" s="3" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="12" customHeight="1">
+      <c r="A294" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D294" s="2">
+        <v>26632782</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>1762</v>
+      </c>
+      <c r="G294" s="3" t="s">
+        <v>1763</v>
       </c>
     </row>
   </sheetData>
